--- a/tables/cifar10_vgg_3.xlsx
+++ b/tables/cifar10_vgg_3.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,66 +455,66 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr"/>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>BAARD2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>BAARD3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>FS</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>LID</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>RC</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>magnet</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="B2" s="1" t="inlineStr"/>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr"/>
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="E2" s="1" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="G2" s="1" t="inlineStr">
+      <c r="H2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
       </c>
-      <c r="H2" s="1" t="inlineStr">
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>Success</t>
         </is>
@@ -531,6 +531,11 @@
           <t>Epsilon</t>
         </is>
       </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Accuracy after attack</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -541,22 +546,25 @@
       <c r="B4" s="1" t="n">
         <v>0.031</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="1" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D4" t="n">
         <v>27.6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>35.2</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>86.5</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.1</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>4.2</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>30.3</v>
       </c>
     </row>
@@ -565,22 +573,25 @@
       <c r="B5" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>99.40000000000001</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>99.5</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>99.8</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>82</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>1.7</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>100</v>
       </c>
     </row>
@@ -589,22 +600,25 @@
       <c r="B6" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C6" t="n">
-        <v>100</v>
+      <c r="C6" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>100</v>
       </c>
       <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" t="n">
         <v>99.59999999999999</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>91.90000000000001</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>1.2</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>100</v>
       </c>
     </row>
@@ -613,22 +627,25 @@
       <c r="B7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C7" t="n">
-        <v>100</v>
+      <c r="C7" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>100</v>
       </c>
       <c r="E7" t="n">
+        <v>100</v>
+      </c>
+      <c r="F7" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>95</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>1.1</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -637,22 +654,25 @@
       <c r="B8" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C8" t="n">
-        <v>100</v>
+      <c r="C8" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>100</v>
       </c>
       <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
         <v>99.90000000000001</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>91.3</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>2.3</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>100</v>
       </c>
     </row>
@@ -665,14 +685,14 @@
       <c r="B9" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C9" t="n">
-        <v>99.5</v>
+      <c r="C9" s="1" t="n">
+        <v>99.40000000000001</v>
       </c>
       <c r="D9" t="n">
         <v>99.5</v>
       </c>
       <c r="E9" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="F9" t="n">
         <v>99.40000000000001</v>
@@ -681,6 +701,9 @@
         <v>99.40000000000001</v>
       </c>
       <c r="H9" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="I9" t="n">
         <v>99.40000000000001</v>
       </c>
     </row>
@@ -689,22 +712,25 @@
       <c r="B10" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C10" t="n">
-        <v>99</v>
+      <c r="C10" s="1" t="n">
+        <v>98.90000000000001</v>
       </c>
       <c r="D10" t="n">
         <v>99</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" t="n">
-        <v>98.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
         <v>98.90000000000001</v>
       </c>
       <c r="H10" t="n">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="I10" t="n">
         <v>98.90000000000001</v>
       </c>
     </row>
@@ -713,22 +739,25 @@
       <c r="B11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C11" t="n">
-        <v>98.5</v>
+      <c r="C11" s="1" t="n">
+        <v>98.3</v>
       </c>
       <c r="D11" t="n">
         <v>98.5</v>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>98.5</v>
       </c>
       <c r="F11" t="n">
-        <v>98.3</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
         <v>98.3</v>
       </c>
       <c r="H11" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="I11" t="n">
         <v>98.3</v>
       </c>
     </row>
@@ -737,22 +766,25 @@
       <c r="B12" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="1" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D12" t="n">
         <v>97.2</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>97.3</v>
       </c>
-      <c r="E12" t="n">
-        <v>100</v>
-      </c>
       <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
         <v>96.59999999999999</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>96.7</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>96.59999999999999</v>
       </c>
     </row>
@@ -761,20 +793,23 @@
       <c r="B13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="1" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="D13" t="n">
         <v>95.40000000000001</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="n">
-        <v>94.8</v>
-      </c>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
         <v>94.8</v>
       </c>
       <c r="H13" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="I13" t="n">
         <v>94.8</v>
       </c>
     </row>
@@ -783,20 +818,23 @@
       <c r="B14" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="1" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="D14" t="n">
         <v>92.40000000000001</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>92.7</v>
       </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>91.3</v>
-      </c>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
         <v>91.3</v>
       </c>
       <c r="H14" t="n">
+        <v>91.3</v>
+      </c>
+      <c r="I14" t="n">
         <v>91.3</v>
       </c>
     </row>
@@ -805,20 +843,23 @@
       <c r="B15" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="1" t="n">
+        <v>82.5</v>
+      </c>
+      <c r="D15" t="n">
         <v>84.2</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>85.2</v>
       </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="n">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
         <v>82.5</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>82.69999999999999</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>82.59999999999999</v>
       </c>
     </row>
@@ -831,20 +872,23 @@
       <c r="B16" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="n">
+      <c r="C16" s="1" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="n">
         <v>58.1</v>
       </c>
-      <c r="E16" t="n">
-        <v>100</v>
-      </c>
       <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
         <v>46.7</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>47.8</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>48.5</v>
       </c>
     </row>
@@ -853,22 +897,25 @@
       <c r="B17" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="1" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="D17" t="n">
         <v>31.4</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>38.3</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>39.3</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>17.4</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>19.2</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>27.7</v>
       </c>
     </row>
@@ -877,22 +924,25 @@
       <c r="B18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="1" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="D18" t="n">
         <v>31.9</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>38.5</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>84.3</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>12.9</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>15.2</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>32.3</v>
       </c>
     </row>
@@ -901,22 +951,25 @@
       <c r="B19" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="1" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="D19" t="n">
         <v>31.5</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>38.5</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>14.8</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>43.2</v>
       </c>
     </row>
@@ -925,20 +978,23 @@
       <c r="B20" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="1" t="n">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="D20" t="n">
         <v>32.8</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>39.5</v>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="n">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
         <v>6.600000000000001</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>13.1</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>59.7</v>
       </c>
     </row>
@@ -947,20 +1003,23 @@
       <c r="B21" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="1" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D21" t="n">
         <v>35.9</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>42.4</v>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="n">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="n">
         <v>26.9</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>7.7</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>83</v>
       </c>
     </row>
@@ -969,20 +1028,23 @@
       <c r="B22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="1" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D22" t="n">
         <v>52.40000000000001</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>57.99999999999999</v>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="n">
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="n">
         <v>53.8</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>3.9</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>99.3</v>
       </c>
     </row>
@@ -995,22 +1057,25 @@
       <c r="B23" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D23" t="n">
         <v>16.4</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>26.2</v>
       </c>
-      <c r="E23" t="n">
-        <v>100</v>
-      </c>
       <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
         <v>72</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>4.4</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>5.1</v>
       </c>
     </row>
@@ -1019,22 +1084,25 @@
       <c r="B24" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
         <v>16.6</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>26.1</v>
       </c>
-      <c r="E24" t="n">
-        <v>100</v>
-      </c>
       <c r="F24" t="n">
+        <v>100</v>
+      </c>
+      <c r="G24" t="n">
         <v>40.7</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>3.7</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>10.2</v>
       </c>
     </row>
@@ -1043,22 +1111,25 @@
       <c r="B25" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
         <v>17</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>26.5</v>
       </c>
-      <c r="E25" t="n">
-        <v>100</v>
-      </c>
       <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
         <v>0</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>3.4</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1071,22 +1142,25 @@
       <c r="B26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>16.1</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>24.9</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>98.5</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>45.7</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>2.8</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -1095,22 +1169,25 @@
       <c r="B27" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
         <v>16.4</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>25.1</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>97.2</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>13</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>2.5</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>0.8999999999999999</v>
       </c>
     </row>
@@ -1123,22 +1200,25 @@
       <c r="B28" s="1" t="n">
         <v>1e-06</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="1" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D28" t="n">
         <v>80.40000000000001</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>82</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>98.59999999999999</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>3.7</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>62.6</v>
       </c>
     </row>
@@ -1151,22 +1231,25 @@
       <c r="B29" s="1" t="n">
         <v>0.031</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="1" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="D29" t="n">
         <v>36.7</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>43.7</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>21.9</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>10.9</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>9.199999999999999</v>
       </c>
     </row>
@@ -1175,22 +1258,25 @@
       <c r="B30" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="C30" t="n">
-        <v>99.90000000000001</v>
+      <c r="C30" s="1" t="n">
+        <v>7.5</v>
       </c>
       <c r="D30" t="n">
         <v>99.90000000000001</v>
       </c>
       <c r="E30" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F30" t="n">
         <v>99.8</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>7.5</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>9.6</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1199,8 +1285,8 @@
       <c r="B31" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="C31" t="n">
-        <v>100</v>
+      <c r="C31" s="1" t="n">
+        <v>8.4</v>
       </c>
       <c r="D31" t="n">
         <v>100</v>
@@ -1209,12 +1295,15 @@
         <v>100</v>
       </c>
       <c r="F31" t="n">
+        <v>100</v>
+      </c>
+      <c r="G31" t="n">
         <v>8.4</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>14.2</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1223,8 +1312,8 @@
       <c r="B32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C32" t="n">
-        <v>100</v>
+      <c r="C32" s="1" t="n">
+        <v>7.000000000000001</v>
       </c>
       <c r="D32" t="n">
         <v>100</v>
@@ -1233,12 +1322,15 @@
         <v>100</v>
       </c>
       <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" t="n">
         <v>7.000000000000001</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>14.9</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>100</v>
       </c>
     </row>
@@ -1247,8 +1339,8 @@
       <c r="B33" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="C33" t="n">
-        <v>100</v>
+      <c r="C33" s="1" t="n">
+        <v>7.000000000000001</v>
       </c>
       <c r="D33" t="n">
         <v>100</v>
@@ -1257,12 +1349,15 @@
         <v>100</v>
       </c>
       <c r="F33" t="n">
+        <v>100</v>
+      </c>
+      <c r="G33" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>15</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>100</v>
       </c>
     </row>

--- a/tables/cifar10_vgg_3.xlsx
+++ b/tables/cifar10_vgg_3.xlsx
@@ -600,7 +600,7 @@
         <v>35.2</v>
       </c>
       <c r="E4" t="n">
-        <v>86.5</v>
+        <v>19.2</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
@@ -609,7 +609,7 @@
         <v>30.3</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
         <v>12.5</v>
@@ -618,7 +618,7 @@
         <v>16.2</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -627,7 +627,7 @@
         <v>0.4</v>
       </c>
       <c r="N4" t="n">
-        <v>37.2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
@@ -642,7 +642,7 @@
         <v>99.5</v>
       </c>
       <c r="E5" t="n">
-        <v>99.8</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>82</v>
@@ -651,7 +651,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
         <v>12.5</v>
@@ -660,7 +660,7 @@
         <v>16.2</v>
       </c>
       <c r="K5" t="n">
-        <v>16.9</v>
+        <v>5.2</v>
       </c>
       <c r="L5" t="n">
         <v>0.2</v>
@@ -669,7 +669,7 @@
         <v>0.4</v>
       </c>
       <c r="N5" t="n">
-        <v>37.3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
@@ -684,7 +684,7 @@
         <v>100</v>
       </c>
       <c r="E6" t="n">
-        <v>99.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>91.90000000000001</v>
@@ -693,7 +693,7 @@
         <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
         <v>12.5</v>
@@ -702,7 +702,7 @@
         <v>16.2</v>
       </c>
       <c r="K6" t="n">
-        <v>16.4</v>
+        <v>5.2</v>
       </c>
       <c r="L6" t="n">
         <v>0.2</v>
@@ -711,7 +711,7 @@
         <v>0.4</v>
       </c>
       <c r="N6" t="n">
-        <v>37.3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -726,7 +726,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>99.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>95</v>
@@ -735,7 +735,7 @@
         <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I7" t="n">
         <v>12.5</v>
@@ -744,7 +744,7 @@
         <v>16.2</v>
       </c>
       <c r="K7" t="n">
-        <v>16.6</v>
+        <v>5.2</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0.4</v>
       </c>
       <c r="N7" t="n">
-        <v>37.3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
@@ -768,7 +768,7 @@
         <v>100</v>
       </c>
       <c r="E8" t="n">
-        <v>99.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>91.3</v>
@@ -777,7 +777,7 @@
         <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
         <v>12.5</v>
@@ -786,7 +786,7 @@
         <v>16.2</v>
       </c>
       <c r="K8" t="n">
-        <v>16.5</v>
+        <v>5.2</v>
       </c>
       <c r="L8" t="n">
         <v>0.1</v>
@@ -795,7 +795,7 @@
         <v>0.4</v>
       </c>
       <c r="N8" t="n">
-        <v>37.6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
@@ -814,7 +814,7 @@
         <v>99.5</v>
       </c>
       <c r="E9" t="n">
-        <v>99.40000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="F9" t="n">
         <v>99.40000000000001</v>
@@ -823,7 +823,7 @@
         <v>98</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I9" t="n">
         <v>12.5</v>
@@ -832,7 +832,7 @@
         <v>16.2</v>
       </c>
       <c r="K9" t="n">
-        <v>22.5</v>
+        <v>5.2</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0.4</v>
       </c>
       <c r="N9" t="n">
-        <v>37.5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
@@ -856,7 +856,7 @@
         <v>99</v>
       </c>
       <c r="E10" t="n">
-        <v>100</v>
+        <v>99.3</v>
       </c>
       <c r="F10" t="n">
         <v>98.90000000000001</v>
@@ -865,7 +865,7 @@
         <v>98</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I10" t="n">
         <v>12.5</v>
@@ -874,7 +874,7 @@
         <v>16.2</v>
       </c>
       <c r="K10" t="n">
-        <v>77.60000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0.4</v>
       </c>
       <c r="N10" t="n">
-        <v>37.4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
@@ -898,7 +898,7 @@
         <v>98.5</v>
       </c>
       <c r="E11" t="n">
-        <v>100</v>
+        <v>98.8</v>
       </c>
       <c r="F11" t="n">
         <v>98.3</v>
@@ -907,7 +907,7 @@
         <v>97.7</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I11" t="n">
         <v>12.5</v>
@@ -916,7 +916,7 @@
         <v>16.2</v>
       </c>
       <c r="K11" t="n">
-        <v>70.59999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0.4</v>
       </c>
       <c r="N11" t="n">
-        <v>37.2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
@@ -940,7 +940,7 @@
         <v>97.3</v>
       </c>
       <c r="E12" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F12" t="n">
         <v>96.59999999999999</v>
@@ -949,7 +949,7 @@
         <v>96.90000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
         <v>12.5</v>
@@ -958,7 +958,7 @@
         <v>16.2</v>
       </c>
       <c r="K12" t="n">
-        <v>74.90000000000001</v>
+        <v>5.2</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -967,7 +967,7 @@
         <v>0.4</v>
       </c>
       <c r="N12" t="n">
-        <v>37.3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
@@ -981,7 +981,9 @@
       <c r="D13" t="n">
         <v>95.59999999999999</v>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>97.09999999999999</v>
+      </c>
       <c r="F13" t="n">
         <v>94.8</v>
       </c>
@@ -989,7 +991,7 @@
         <v>95.90000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
         <v>12.5</v>
@@ -997,7 +999,9 @@
       <c r="J13" t="n">
         <v>16.2</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>5.2</v>
+      </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
@@ -1005,7 +1009,7 @@
         <v>0.4</v>
       </c>
       <c r="N13" t="n">
-        <v>37.6</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -1019,7 +1023,9 @@
       <c r="D14" t="n">
         <v>92.7</v>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>96</v>
+      </c>
       <c r="F14" t="n">
         <v>91.3</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>94.2</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I14" t="n">
         <v>12.5</v>
@@ -1035,7 +1041,9 @@
       <c r="J14" t="n">
         <v>16.2</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>5.2</v>
+      </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
@@ -1043,7 +1051,7 @@
         <v>0.4</v>
       </c>
       <c r="N14" t="n">
-        <v>37.4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
@@ -1057,7 +1065,9 @@
       <c r="D15" t="n">
         <v>85.2</v>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>92.09999999999999</v>
+      </c>
       <c r="F15" t="n">
         <v>82.5</v>
       </c>
@@ -1065,7 +1075,7 @@
         <v>86.59999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I15" t="n">
         <v>12.5</v>
@@ -1073,7 +1083,9 @@
       <c r="J15" t="n">
         <v>16.2</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>5.2</v>
+      </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
@@ -1081,7 +1093,7 @@
         <v>0.4</v>
       </c>
       <c r="N15" t="n">
-        <v>37.4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
@@ -1098,7 +1110,7 @@
         <v>58.1</v>
       </c>
       <c r="E16" t="n">
-        <v>100</v>
+        <v>80.10000000000002</v>
       </c>
       <c r="F16" t="n">
         <v>46.7</v>
@@ -1107,14 +1119,14 @@
         <v>61.9</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>16.2</v>
       </c>
       <c r="K16" t="n">
-        <v>70.39999999999998</v>
+        <v>5.2</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1123,7 +1135,7 @@
         <v>0.4</v>
       </c>
       <c r="N16" t="n">
-        <v>37.3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -1138,7 +1150,7 @@
         <v>38.3</v>
       </c>
       <c r="E17" t="n">
-        <v>39.3</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="F17" t="n">
         <v>17.4</v>
@@ -1147,7 +1159,7 @@
         <v>32.1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I17" t="n">
         <v>12.5</v>
@@ -1156,7 +1168,7 @@
         <v>16.2</v>
       </c>
       <c r="K17" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1165,7 +1177,7 @@
         <v>0.4</v>
       </c>
       <c r="N17" t="n">
-        <v>37.5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
@@ -1180,7 +1192,7 @@
         <v>38.5</v>
       </c>
       <c r="E18" t="n">
-        <v>84.3</v>
+        <v>29.8</v>
       </c>
       <c r="F18" t="n">
         <v>12.9</v>
@@ -1189,7 +1201,7 @@
         <v>32.5</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I18" t="n">
         <v>12.5</v>
@@ -1198,7 +1210,7 @@
         <v>16.2</v>
       </c>
       <c r="K18" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1207,7 +1219,7 @@
         <v>0.4</v>
       </c>
       <c r="N18" t="n">
-        <v>37.4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -1222,7 +1234,7 @@
         <v>38.5</v>
       </c>
       <c r="E19" t="n">
-        <v>98.59999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="F19" t="n">
         <v>9.800000000000001</v>
@@ -1231,7 +1243,7 @@
         <v>43.2</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I19" t="n">
         <v>12.5</v>
@@ -1240,7 +1252,7 @@
         <v>16.2</v>
       </c>
       <c r="K19" t="n">
-        <v>21.1</v>
+        <v>5.2</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1249,7 +1261,7 @@
         <v>0.4</v>
       </c>
       <c r="N19" t="n">
-        <v>37.3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
@@ -1263,7 +1275,9 @@
       <c r="D20" t="n">
         <v>39.5</v>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>8.4</v>
+      </c>
       <c r="F20" t="n">
         <v>6.600000000000001</v>
       </c>
@@ -1271,7 +1285,7 @@
         <v>59.7</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
         <v>12.5</v>
@@ -1279,7 +1293,9 @@
       <c r="J20" t="n">
         <v>16.2</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>5.2</v>
+      </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
@@ -1287,7 +1303,7 @@
         <v>0.4</v>
       </c>
       <c r="N20" t="n">
-        <v>37.3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -1301,7 +1317,9 @@
       <c r="D21" t="n">
         <v>42.4</v>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>3.1</v>
+      </c>
       <c r="F21" t="n">
         <v>26.9</v>
       </c>
@@ -1309,7 +1327,7 @@
         <v>83</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I21" t="n">
         <v>12.5</v>
@@ -1317,7 +1335,9 @@
       <c r="J21" t="n">
         <v>16.2</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>5.2</v>
+      </c>
       <c r="L21" t="n">
         <v>1.8</v>
       </c>
@@ -1325,7 +1345,7 @@
         <v>0.4</v>
       </c>
       <c r="N21" t="n">
-        <v>37.7</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
@@ -1339,7 +1359,9 @@
       <c r="D22" t="n">
         <v>57.99999999999999</v>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0.6</v>
+      </c>
       <c r="F22" t="n">
         <v>53.8</v>
       </c>
@@ -1347,7 +1369,7 @@
         <v>99.3</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I22" t="n">
         <v>12.5</v>
@@ -1355,7 +1377,9 @@
       <c r="J22" t="n">
         <v>16.2</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>5.2</v>
+      </c>
       <c r="L22" t="n">
         <v>1.3</v>
       </c>
@@ -1363,7 +1387,7 @@
         <v>0.4</v>
       </c>
       <c r="N22" t="n">
-        <v>37.5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -1382,7 +1406,7 @@
         <v>26.20000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>100</v>
+        <v>4.7</v>
       </c>
       <c r="F23" t="n">
         <v>72</v>
@@ -1391,7 +1415,7 @@
         <v>85.5</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I23" t="n">
         <v>12.5</v>
@@ -1400,7 +1424,7 @@
         <v>16.2</v>
       </c>
       <c r="K23" t="n">
-        <v>69.19999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="L23" t="n">
         <v>7.399999999999999</v>
@@ -1409,7 +1433,7 @@
         <v>0.4</v>
       </c>
       <c r="N23" t="n">
-        <v>37.3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
@@ -1424,7 +1448,7 @@
         <v>26.1</v>
       </c>
       <c r="E24" t="n">
-        <v>100</v>
+        <v>85.39999999999998</v>
       </c>
       <c r="F24" t="n">
         <v>40.7</v>
@@ -1433,7 +1457,7 @@
         <v>44.2</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I24" t="n">
         <v>12.5</v>
@@ -1442,7 +1466,7 @@
         <v>16.2</v>
       </c>
       <c r="K24" t="n">
-        <v>69.3</v>
+        <v>5.2</v>
       </c>
       <c r="L24" t="n">
         <v>11.2</v>
@@ -1451,7 +1475,7 @@
         <v>0.4</v>
       </c>
       <c r="N24" t="n">
-        <v>37.3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
@@ -1466,7 +1490,7 @@
         <v>26.5</v>
       </c>
       <c r="E25" t="n">
-        <v>100</v>
+        <v>75.7</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1475,7 +1499,7 @@
         <v>17.29999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I25" t="n">
         <v>12.5</v>
@@ -1484,7 +1508,7 @@
         <v>16.2</v>
       </c>
       <c r="K25" t="n">
-        <v>69.69999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1493,7 +1517,7 @@
         <v>0.4</v>
       </c>
       <c r="N25" t="n">
-        <v>37.4</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -1512,7 +1536,7 @@
         <v>24.9</v>
       </c>
       <c r="E26" t="n">
-        <v>98.5</v>
+        <v>67.60000000000001</v>
       </c>
       <c r="F26" t="n">
         <v>45.7</v>
@@ -1521,7 +1545,7 @@
         <v>21.1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I26" t="n">
         <v>12.5</v>
@@ -1530,7 +1554,7 @@
         <v>16.2</v>
       </c>
       <c r="K26" t="n">
-        <v>69.3</v>
+        <v>5.2</v>
       </c>
       <c r="L26" t="n">
         <v>8.1</v>
@@ -1539,7 +1563,7 @@
         <v>0.4</v>
       </c>
       <c r="N26" t="n">
-        <v>37.8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -1554,7 +1578,7 @@
         <v>25.1</v>
       </c>
       <c r="E27" t="n">
-        <v>97.2</v>
+        <v>49</v>
       </c>
       <c r="F27" t="n">
         <v>13</v>
@@ -1563,7 +1587,7 @@
         <v>1.7</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I27" t="n">
         <v>12.5</v>
@@ -1572,7 +1596,7 @@
         <v>16.2</v>
       </c>
       <c r="K27" t="n">
-        <v>69.5</v>
+        <v>5.2</v>
       </c>
       <c r="L27" t="n">
         <v>5.2</v>
@@ -1581,7 +1605,7 @@
         <v>0.4</v>
       </c>
       <c r="N27" t="n">
-        <v>37</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
@@ -1600,7 +1624,7 @@
         <v>82</v>
       </c>
       <c r="E28" t="n">
-        <v>98.59999999999999</v>
+        <v>47</v>
       </c>
       <c r="F28" t="n">
         <v>3.7</v>
@@ -1609,7 +1633,7 @@
         <v>64.8</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I28" t="n">
         <v>12.5</v>
@@ -1618,7 +1642,7 @@
         <v>16.2</v>
       </c>
       <c r="K28" t="n">
-        <v>69.19999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -1627,7 +1651,7 @@
         <v>0.4</v>
       </c>
       <c r="N28" t="n">
-        <v>37.5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
@@ -1646,7 +1670,7 @@
         <v>43.7</v>
       </c>
       <c r="E29" t="n">
-        <v>98.90000000000001</v>
+        <v>39.3</v>
       </c>
       <c r="F29" t="n">
         <v>21.9</v>
@@ -1655,7 +1679,7 @@
         <v>13.8</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I29" t="n">
         <v>12.5</v>
@@ -1664,7 +1688,7 @@
         <v>16.2</v>
       </c>
       <c r="K29" t="n">
-        <v>74.3</v>
+        <v>5.2</v>
       </c>
       <c r="L29" t="n">
         <v>3</v>
@@ -1673,7 +1697,7 @@
         <v>0.4</v>
       </c>
       <c r="N29" t="n">
-        <v>37.5</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30">
@@ -1688,7 +1712,7 @@
         <v>99.90000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>99.8</v>
+        <v>48.6</v>
       </c>
       <c r="F30" t="n">
         <v>7.5</v>
@@ -1697,7 +1721,7 @@
         <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I30" t="n">
         <v>12.5</v>
@@ -1706,7 +1730,7 @@
         <v>16.2</v>
       </c>
       <c r="K30" t="n">
-        <v>69</v>
+        <v>5.2</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -1715,7 +1739,7 @@
         <v>0.4</v>
       </c>
       <c r="N30" t="n">
-        <v>37.3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
@@ -1730,7 +1754,7 @@
         <v>100</v>
       </c>
       <c r="E31" t="n">
-        <v>100</v>
+        <v>56.49999999999999</v>
       </c>
       <c r="F31" t="n">
         <v>8.4</v>
@@ -1739,7 +1763,7 @@
         <v>100</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I31" t="n">
         <v>12.5</v>
@@ -1748,7 +1772,7 @@
         <v>16.2</v>
       </c>
       <c r="K31" t="n">
-        <v>69.5</v>
+        <v>5.2</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -1757,7 +1781,7 @@
         <v>0.4</v>
       </c>
       <c r="N31" t="n">
-        <v>37.2</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
@@ -1772,7 +1796,7 @@
         <v>100</v>
       </c>
       <c r="E32" t="n">
-        <v>100</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="F32" t="n">
         <v>7.000000000000001</v>
@@ -1781,7 +1805,7 @@
         <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I32" t="n">
         <v>12.5</v>
@@ -1790,7 +1814,7 @@
         <v>16.2</v>
       </c>
       <c r="K32" t="n">
-        <v>69.09999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -1799,7 +1823,7 @@
         <v>0.4</v>
       </c>
       <c r="N32" t="n">
-        <v>37.3</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
@@ -1814,7 +1838,7 @@
         <v>100</v>
       </c>
       <c r="E33" t="n">
-        <v>100</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="F33" t="n">
         <v>9.300000000000001</v>
@@ -1823,7 +1847,7 @@
         <v>100</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I33" t="n">
         <v>12.5</v>
@@ -1832,7 +1856,7 @@
         <v>16.2</v>
       </c>
       <c r="K33" t="n">
-        <v>69.59999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -1841,7 +1865,7 @@
         <v>0.4</v>
       </c>
       <c r="N33" t="n">
-        <v>37.5</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/tables/cifar10_vgg_3.xlsx
+++ b/tables/cifar10_vgg_3.xlsx
@@ -609,7 +609,7 @@
         <v>30.3</v>
       </c>
       <c r="H4" t="n">
-        <v>11</v>
+        <v>0.1</v>
       </c>
       <c r="I4" t="n">
         <v>12.5</v>
@@ -627,7 +627,7 @@
         <v>0.4</v>
       </c>
       <c r="N4" t="n">
-        <v>89</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
@@ -651,7 +651,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>12.5</v>
@@ -669,7 +669,7 @@
         <v>0.4</v>
       </c>
       <c r="N5" t="n">
-        <v>89</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
@@ -693,7 +693,7 @@
         <v>100</v>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>12.5</v>
@@ -711,7 +711,7 @@
         <v>0.4</v>
       </c>
       <c r="N6" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -735,7 +735,7 @@
         <v>100</v>
       </c>
       <c r="H7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>12.5</v>
@@ -753,7 +753,7 @@
         <v>0.4</v>
       </c>
       <c r="N7" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8">
@@ -777,7 +777,7 @@
         <v>100</v>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>12.5</v>
@@ -795,7 +795,7 @@
         <v>0.4</v>
       </c>
       <c r="N8" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="9">
@@ -823,7 +823,7 @@
         <v>98</v>
       </c>
       <c r="H9" t="n">
-        <v>11</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="I9" t="n">
         <v>12.5</v>
@@ -841,7 +841,7 @@
         <v>0.4</v>
       </c>
       <c r="N9" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10">
@@ -865,7 +865,7 @@
         <v>98</v>
       </c>
       <c r="H10" t="n">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="I10" t="n">
         <v>12.5</v>
@@ -883,7 +883,7 @@
         <v>0.4</v>
       </c>
       <c r="N10" t="n">
-        <v>89</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11">
@@ -907,7 +907,7 @@
         <v>97.7</v>
       </c>
       <c r="H11" t="n">
-        <v>11</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="I11" t="n">
         <v>12.5</v>
@@ -925,7 +925,7 @@
         <v>0.4</v>
       </c>
       <c r="N11" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="12">
@@ -949,7 +949,7 @@
         <v>96.90000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>97.2</v>
       </c>
       <c r="I12" t="n">
         <v>12.5</v>
@@ -967,7 +967,7 @@
         <v>0.4</v>
       </c>
       <c r="N12" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>95.90000000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="I13" t="n">
         <v>12.5</v>
@@ -1009,7 +1009,7 @@
         <v>0.4</v>
       </c>
       <c r="N13" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="14">
@@ -1033,7 +1033,7 @@
         <v>94.2</v>
       </c>
       <c r="H14" t="n">
-        <v>11</v>
+        <v>92.7</v>
       </c>
       <c r="I14" t="n">
         <v>12.5</v>
@@ -1051,7 +1051,7 @@
         <v>0.4</v>
       </c>
       <c r="N14" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
@@ -1075,7 +1075,7 @@
         <v>86.59999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="I15" t="n">
         <v>12.5</v>
@@ -1093,7 +1093,7 @@
         <v>0.4</v>
       </c>
       <c r="N15" t="n">
-        <v>89</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16">
@@ -1119,7 +1119,7 @@
         <v>61.9</v>
       </c>
       <c r="H16" t="n">
-        <v>11</v>
+        <v>51.1</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
@@ -1135,7 +1135,7 @@
         <v>0.4</v>
       </c>
       <c r="N16" t="n">
-        <v>89</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17">
@@ -1159,7 +1159,7 @@
         <v>32.1</v>
       </c>
       <c r="H17" t="n">
-        <v>11</v>
+        <v>18.2</v>
       </c>
       <c r="I17" t="n">
         <v>12.5</v>
@@ -1177,7 +1177,7 @@
         <v>0.4</v>
       </c>
       <c r="N17" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18">
@@ -1201,7 +1201,7 @@
         <v>32.5</v>
       </c>
       <c r="H18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I18" t="n">
         <v>12.5</v>
@@ -1219,7 +1219,7 @@
         <v>0.4</v>
       </c>
       <c r="N18" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19">
@@ -1243,7 +1243,7 @@
         <v>43.2</v>
       </c>
       <c r="H19" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I19" t="n">
         <v>12.5</v>
@@ -1261,7 +1261,7 @@
         <v>0.4</v>
       </c>
       <c r="N19" t="n">
-        <v>89</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="20">
@@ -1285,7 +1285,7 @@
         <v>59.7</v>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="I20" t="n">
         <v>12.5</v>
@@ -1303,7 +1303,7 @@
         <v>0.4</v>
       </c>
       <c r="N20" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21">
@@ -1327,7 +1327,7 @@
         <v>83</v>
       </c>
       <c r="H21" t="n">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
         <v>12.5</v>
@@ -1345,7 +1345,7 @@
         <v>0.4</v>
       </c>
       <c r="N21" t="n">
-        <v>89</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22">
@@ -1369,7 +1369,7 @@
         <v>99.3</v>
       </c>
       <c r="H22" t="n">
-        <v>11</v>
+        <v>0.6</v>
       </c>
       <c r="I22" t="n">
         <v>12.5</v>
@@ -1387,7 +1387,7 @@
         <v>0.4</v>
       </c>
       <c r="N22" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="23">
@@ -1403,7 +1403,7 @@
         <v>16.4</v>
       </c>
       <c r="D23" t="n">
-        <v>26.20000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="E23" t="n">
         <v>4.7</v>
@@ -1415,13 +1415,13 @@
         <v>85.5</v>
       </c>
       <c r="H23" t="n">
-        <v>11</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="I23" t="n">
         <v>12.5</v>
       </c>
       <c r="J23" t="n">
-        <v>16.2</v>
+        <v>5.9</v>
       </c>
       <c r="K23" t="n">
         <v>5.2</v>
@@ -1433,7 +1433,7 @@
         <v>0.4</v>
       </c>
       <c r="N23" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="24">
@@ -1457,7 +1457,7 @@
         <v>44.2</v>
       </c>
       <c r="H24" t="n">
-        <v>11</v>
+        <v>0.5</v>
       </c>
       <c r="I24" t="n">
         <v>12.5</v>
@@ -1475,7 +1475,7 @@
         <v>0.4</v>
       </c>
       <c r="N24" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="25">
@@ -1499,7 +1499,7 @@
         <v>17.29999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>12.5</v>
@@ -1517,7 +1517,7 @@
         <v>0.4</v>
       </c>
       <c r="N25" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="26">
@@ -1545,7 +1545,7 @@
         <v>21.1</v>
       </c>
       <c r="H26" t="n">
-        <v>11</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="I26" t="n">
         <v>12.5</v>
@@ -1563,7 +1563,7 @@
         <v>0.4</v>
       </c>
       <c r="N26" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="27">
@@ -1587,7 +1587,7 @@
         <v>1.7</v>
       </c>
       <c r="H27" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>12.5</v>
@@ -1605,7 +1605,7 @@
         <v>0.4</v>
       </c>
       <c r="N27" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="28">
@@ -1633,7 +1633,7 @@
         <v>64.8</v>
       </c>
       <c r="H28" t="n">
-        <v>11</v>
+        <v>6.3</v>
       </c>
       <c r="I28" t="n">
         <v>12.5</v>
@@ -1651,7 +1651,7 @@
         <v>0.4</v>
       </c>
       <c r="N28" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="29">
@@ -1679,7 +1679,7 @@
         <v>13.8</v>
       </c>
       <c r="H29" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="I29" t="n">
         <v>12.5</v>
@@ -1697,7 +1697,7 @@
         <v>0.4</v>
       </c>
       <c r="N29" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="30">
@@ -1721,7 +1721,7 @@
         <v>100</v>
       </c>
       <c r="H30" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="I30" t="n">
         <v>12.5</v>
@@ -1739,7 +1739,7 @@
         <v>0.4</v>
       </c>
       <c r="N30" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="31">
@@ -1763,7 +1763,7 @@
         <v>100</v>
       </c>
       <c r="H31" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="I31" t="n">
         <v>12.5</v>
@@ -1781,7 +1781,7 @@
         <v>0.4</v>
       </c>
       <c r="N31" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="32">
@@ -1805,7 +1805,7 @@
         <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>11</v>
+        <v>6.9</v>
       </c>
       <c r="I32" t="n">
         <v>12.5</v>
@@ -1823,7 +1823,7 @@
         <v>0.4</v>
       </c>
       <c r="N32" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="33">
@@ -1847,7 +1847,7 @@
         <v>100</v>
       </c>
       <c r="H33" t="n">
-        <v>11</v>
+        <v>6.9</v>
       </c>
       <c r="I33" t="n">
         <v>12.5</v>
@@ -1865,7 +1865,7 @@
         <v>0.4</v>
       </c>
       <c r="N33" t="n">
-        <v>89</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
